--- a/01_Sales/Pricing 10KWp.xlsx
+++ b/01_Sales/Pricing 10KWp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>MCB Box 2Pole</t>
   </si>
   <si>
-    <t>Packing Material 10KWp System</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cables AC </t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Less 4 Rs</t>
+  </si>
+  <si>
+    <t>BOM 10KWp System</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>35</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>47</v>
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +997,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -1048,10 +1048,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
